--- a/MTGA/draft_records.xlsx
+++ b/MTGA/draft_records.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24920" windowHeight="10740"/>
+    <workbookView windowWidth="24920" windowHeight="11726"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -134,10 +134,10 @@
     <t>中速。</t>
   </si>
   <si>
+    <t>快攻/中速。抓齐的红黑，质量很不错，怎么就只打了个5胜呢。有几次起手没调度贪心了，我的二费曲线都去哪了。</t>
+  </si>
+  <si>
     <t>RBu</t>
-  </si>
-  <si>
-    <t>快攻/中速。抓齐的红黑，质量很不错，怎么就只打了个5胜呢。有几次起手没调度贪心了，我的二费曲线都去哪了。</t>
   </si>
   <si>
     <t>1p1p开出了公会首领札那瑟，但不想打蓝黑，所以混了这一张蓝牌。札那瑟太强了，直接劝退了四次对手；但我赢了一次札那瑟，对面札那瑟翻到我的札那瑟不敢用，心情一定是崩溃的，下回合就被我抢死了。说实话，套牌中的其他部分真不怎么样，我一上来抓不到札那瑟直接打了1-2还是很慌的。</t>
@@ -184,10 +184,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="0.000_ "/>
   </numFmts>
@@ -222,9 +222,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,30 +237,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,10 +251,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -306,6 +313,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -329,20 +343,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -353,187 +353,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -558,15 +558,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -600,6 +591,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -652,10 +652,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -664,133 +664,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1163,8 +1163,8 @@
   <sheetPr/>
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.3"/>
@@ -1562,7 +1562,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" ht="43" spans="1:8">
+    <row r="14" ht="57.35" spans="1:8">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -1616,7 +1616,7 @@
     </row>
     <row r="16" ht="43" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B16" s="2">
         <v>5</v>
@@ -1625,7 +1625,7 @@
         <v>3</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E16" s="2">
         <v>3</v>
@@ -1666,9 +1666,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" ht="86" spans="1:8">
+    <row r="18" ht="100.35" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B18" s="2">
         <v>7</v>
@@ -1718,7 +1718,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" ht="14.35" spans="1:8">
+    <row r="20" ht="28.65" spans="1:8">
       <c r="A20" s="1" t="s">
         <v>42</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" ht="43" spans="1:8">
+    <row r="22" ht="57.35" spans="1:8">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -1796,7 +1796,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" ht="28.65" spans="1:8">
+    <row r="23" ht="43" spans="1:8">
       <c r="A23" s="1" t="s">
         <v>28</v>
       </c>
